--- a/SeaEco.Server/wwwroot/reports/generated/SE-25-BU-1-Bilder.xlsx
+++ b/SeaEco.Server/wwwroot/reports/generated/SE-25-BU-1-Bilder.xlsx
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A720AAA-BD02-4F64-8AB7-8ADEAF8E754A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E49BF9-CEC1-4BA4-98E0-770BE9FCCDAC}">
   <dimension ref="A2:H10"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">

--- a/SeaEco.Server/wwwroot/reports/generated/SE-25-BU-1-Bilder.xlsx
+++ b/SeaEco.Server/wwwroot/reports/generated/SE-25-BU-1-Bilder.xlsx
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E49BF9-CEC1-4BA4-98E0-770BE9FCCDAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7BBC97-4A7C-442E-B9BF-75CF642DE290}">
   <dimension ref="A2:H10"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">

--- a/SeaEco.Server/wwwroot/reports/generated/SE-25-BU-1-Bilder.xlsx
+++ b/SeaEco.Server/wwwroot/reports/generated/SE-25-BU-1-Bilder.xlsx
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7BBC97-4A7C-442E-B9BF-75CF642DE290}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13EB0710-DE75-48F3-9ED7-A813DE6B91C3}">
   <dimension ref="A2:H10"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
